--- a/output.xlsx
+++ b/output.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.915622482023996</v>
+        <v>-1.066323653843774</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1805620805844327</v>
+        <v>-0.04273730460225229</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1604883885363149</v>
+        <v>-1.206827616682046</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2525131963627152</v>
+        <v>0.4838797289119023</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3487443014161868</v>
+        <v>0.5674741993813586</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6239511217222953</v>
+        <v>-2.28904727432513</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4086561148948945</v>
+        <v>0.581498848875619</v>
       </c>
       <c r="C3" t="n">
-        <v>1.907441003233314</v>
+        <v>1.600232048174477</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9054177398564357</v>
+        <v>0.4951058301096645</v>
       </c>
       <c r="E3" t="n">
-        <v>1.129553435108833</v>
+        <v>1.993851961682477</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.124933715443501</v>
+        <v>-0.5932011660864086</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.421941515299382</v>
+        <v>-1.382315079849353</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0658383639217774</v>
+        <v>1.335401330219999</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.03250627211732034</v>
+        <v>-1.117943985506501</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9592884471575455</v>
+        <v>0.4957768741735263</v>
       </c>
       <c r="E4" t="n">
-        <v>1.586857006408128</v>
+        <v>-0.1290766255172879</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.568859945739533</v>
+        <v>-0.7586189094201933</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5752150401578625</v>
+        <v>0.2909502344916797</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2974605063424082</v>
+        <v>-1.832723414634292</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1923757715875223</v>
+        <v>-0.336507590010077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.59353572759151</v>
+        <v>0.8012784877110604</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2447249524370545</v>
+        <v>1.670769469080296</v>
       </c>
       <c r="F5" t="n">
-        <v>1.486478856434224</v>
+        <v>1.134426755515544</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1182915070325209</v>
+        <v>-0.3142373714779038</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.066323653843774</v>
+        <v>-0.6018121588041714</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04273730460225229</v>
+        <v>1.279587445113195</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.206827616682046</v>
+        <v>0.933675904046069</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4838797289119023</v>
+        <v>0.4684208899676482</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5674741993813586</v>
+        <v>-0.1517732280813331</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.28904727432513</v>
+        <v>-0.271894729306604</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.581498848875619</v>
+        <v>0.04634194990233538</v>
       </c>
       <c r="C3" t="n">
-        <v>1.600232048174477</v>
+        <v>0.8477286309027585</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4951058301096645</v>
+        <v>0.06664631125303939</v>
       </c>
       <c r="E3" t="n">
-        <v>1.993851961682477</v>
+        <v>0.5086840767694208</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5932011660864086</v>
+        <v>-1.636124696450976</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.382315079849353</v>
+        <v>-0.1224062440709549</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.335401330219999</v>
+        <v>0.6670861197085095</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.117943985506501</v>
+        <v>0.57597053132798</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4957768741735263</v>
+        <v>1.50921937768213</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1290766255172879</v>
+        <v>1.925449601128891</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7586189094201933</v>
+        <v>2.129078472527567</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2909502344916797</v>
+        <v>0.4222032812847358</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.832723414634292</v>
+        <v>0.7029250594428267</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.336507590010077</v>
+        <v>-0.5082414100076444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8012784877110604</v>
+        <v>1.03266689143827</v>
       </c>
       <c r="E5" t="n">
-        <v>1.670769469080296</v>
+        <v>1.154515660424944</v>
       </c>
       <c r="F5" t="n">
-        <v>1.134426755515544</v>
+        <v>1.504433119760705</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3142373714779038</v>
+        <v>1.635613395019081</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.6018121588041714</v>
+        <v>0.351933731925046</v>
       </c>
       <c r="C2" t="n">
-        <v>1.279587445113195</v>
+        <v>-0.2265349787039628</v>
       </c>
       <c r="D2" t="n">
-        <v>0.933675904046069</v>
+        <v>0.3896318002431477</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4684208899676482</v>
+        <v>-1.164517990470868</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1517732280813331</v>
+        <v>0.2983907768154309</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.271894729306604</v>
+        <v>-1.272713389025001</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04634194990233538</v>
+        <v>0.483928291816594</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8477286309027585</v>
+        <v>0.3475322221743218</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06664631125303939</v>
+        <v>0.5987908972983277</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5086840767694208</v>
+        <v>1.542345016189005</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.636124696450976</v>
+        <v>-2.598725760842706</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1224062440709549</v>
+        <v>-0.1535838579721285</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6670861197085095</v>
+        <v>1.099274666443421</v>
       </c>
       <c r="C4" t="n">
-        <v>0.57597053132798</v>
+        <v>1.044638713240658</v>
       </c>
       <c r="D4" t="n">
-        <v>1.50921937768213</v>
+        <v>0.1781411547237048</v>
       </c>
       <c r="E4" t="n">
-        <v>1.925449601128891</v>
+        <v>0.6548452540093722</v>
       </c>
       <c r="F4" t="n">
-        <v>2.129078472527567</v>
+        <v>-0.9349363651583594</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4222032812847358</v>
+        <v>0.9023743127639972</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7029250594428267</v>
+        <v>0.720263853926964</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5082414100076444</v>
+        <v>0.7120498026022106</v>
       </c>
       <c r="D5" t="n">
-        <v>1.03266689143827</v>
+        <v>-0.8644511988496305</v>
       </c>
       <c r="E5" t="n">
-        <v>1.154515660424944</v>
+        <v>1.314289389517675</v>
       </c>
       <c r="F5" t="n">
-        <v>1.504433119760705</v>
+        <v>0.7018350666716386</v>
       </c>
       <c r="G5" t="n">
-        <v>1.635613395019081</v>
+        <v>1.041051733220484</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.351933731925046</v>
+        <v>0.1293844257063259</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2265349787039628</v>
+        <v>1.126487903547498</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3896318002431477</v>
+        <v>-1.527112985601752</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.164517990470868</v>
+        <v>1.054064439858307</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2983907768154309</v>
+        <v>0.2721823542031501</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.272713389025001</v>
+        <v>-0.5456086768227083</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.483928291816594</v>
+        <v>0.2305754813224691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3475322221743218</v>
+        <v>-0.4132067315072894</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5987908972983277</v>
+        <v>-0.2970830745302194</v>
       </c>
       <c r="E3" t="n">
-        <v>1.542345016189005</v>
+        <v>0.7597137469381327</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.598725760842706</v>
+        <v>-1.305976020374571</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1535838579721285</v>
+        <v>1.119352948005322</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.099274666443421</v>
+        <v>0.4350184809925216</v>
       </c>
       <c r="C4" t="n">
-        <v>1.044638713240658</v>
+        <v>-1.332330144696385</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1781411547237048</v>
+        <v>-0.6514751928244524</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6548452540093722</v>
+        <v>1.837754181078069</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.9349363651583594</v>
+        <v>1.514195141758233</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9023743127639972</v>
+        <v>-0.1769374328560021</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.720263853926964</v>
+        <v>-0.1222016774504006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7120498026022106</v>
+        <v>-0.3508902091056337</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8644511988496305</v>
+        <v>-1.003568228990039</v>
       </c>
       <c r="E5" t="n">
-        <v>1.314289389517675</v>
+        <v>0.4140071219104854</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7018350666716386</v>
+        <v>-0.513542590668514</v>
       </c>
       <c r="G5" t="n">
-        <v>1.041051733220484</v>
+        <v>0.633370668602496</v>
       </c>
     </row>
   </sheetData>
